--- a/Delizioso/Content/products.xlsx
+++ b/Delizioso/Content/products.xlsx
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>短袖踢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白踢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外套</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +99,14 @@
   </si>
   <si>
     <t>紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短袖POLO衫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,9 +153,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,108 +443,113 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>500</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>500</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
         <v>800</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>600</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
         <v>60</v>
       </c>
     </row>

--- a/Delizioso/Content/products.xlsx
+++ b/Delizioso/Content/products.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="166">
   <si>
     <t>產品種類</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,39 +50,616 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>褲子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公事包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單肩包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉穩深藍外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>線條灰外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>純白外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軍綠外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風衣外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>純黑外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石灰白外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深藍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軍綠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉紅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮夾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡約皮夾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮帶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正是皮帶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西裝外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素面黑西裝外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米白西裝外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太空灰西裝外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格紋藍西裝外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素面深藍西裝外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>條文深藍西裝外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>條文灰白西裝外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西裝褲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深藍西裝褲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡其西裝褲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>純白西裝褲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素黑西裝褲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長褲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素黑長褲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深藍長褲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素黑西裝褲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深藍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡其</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深藍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>束褲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰束褲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑束褲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涼鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夾腳休閒拖鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夾角海灘拖鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NB拖鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIKE拖鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長袖T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲彩七分袖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘻哈圓領棉質T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘻哈圓領棉質T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軍綠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流行格紋七分袖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼鏡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低調質感靛藍玳瑁</t>
+  </si>
+  <si>
+    <t>特殊夾式方框</t>
+  </si>
+  <si>
+    <t>經典飛行員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡約俐落方框</t>
+  </si>
+  <si>
+    <t>藍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帽T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帽T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帽T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深藍帽T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相間帽T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深藍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相間帽T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色七分袖帽T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨綠帽T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素面黑帽T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色七分袖帽T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲彩黑帽T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮粉色帽T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉穩粉色帽T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮白帽T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米白帽T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉紅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短袖T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風格短T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運動SPORT上衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休閒上衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲彩運動上衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>紅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>褲子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>褲子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
+    <t>米白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮帶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆布皮帶</t>
+  </si>
+  <si>
+    <t>窄領帶</t>
+  </si>
+  <si>
+    <t>寬領帶</t>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休閒運動凡布鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運動鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>純皮革尖頭皮鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成皮革圓頭皮鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>純黑休閒鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高筒皮鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebook運動鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>質感健走鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色仿皮鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色皮鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍足球鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍者鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>襪子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休閒短襪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格子長襪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅色長襪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍黑武士襪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色運動襪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海綿寶寶襪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍天白雲襪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,23 +667,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>綠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短袖POLO衫</t>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -475,19 +1048,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>20</v>
@@ -495,19 +1068,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1">
         <v>50</v>
@@ -518,39 +1091,1739 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>800</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>600</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1">
         <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1">
+        <v>800</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="1">
+        <v>800</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1">
+        <v>800</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F57" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="1">
+        <v>800</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="1">
+        <v>800</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="1">
+        <v>900</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="1">
+        <v>900</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="1">
+        <v>900</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F67" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="1">
+        <v>800</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="1">
+        <v>900</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2200</v>
+      </c>
+      <c r="D72" s="1">
+        <v>28</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D73" s="1">
+        <v>28</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F73" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D74" s="1">
+        <v>28</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F74" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D75" s="1">
+        <v>28</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F75" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D76" s="1">
+        <v>28</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D77" s="1">
+        <v>28</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F77" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D78" s="1">
+        <v>28</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D79" s="1">
+        <v>28</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F79" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D80" s="1">
+        <v>28</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2600</v>
+      </c>
+      <c r="D81" s="1">
+        <v>28</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2800</v>
+      </c>
+      <c r="D82" s="1">
+        <v>28</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D83" s="1">
+        <v>28</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" s="1">
+        <v>600</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="1">
+        <v>600</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" s="1">
+        <v>600</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F86" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F87" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" s="1">
+        <v>600</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F89" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F90" s="1">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
